--- a/Datos/Old_Format/2025/01.ENERO/RPT_GESTION_ENERGIA_ENERO_06_2025.xlsx
+++ b/Datos/Old_Format/2025/01.ENERO/RPT_GESTION_ENERGIA_ENERO_06_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edificiobancodeoccidente-my.sharepoint.com/personal/ccontrol_edificiobancodeoccidente_com_co/Documents/COMPARTIDA_CCONTROL/RPT_GESTION_DE_ENERGIA/2025/01.ENERO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Documents\Personal\Escuela Pol. Feminista\Feministadística\GitHub\Energy\Datos\Old_Format\2025\01.ENERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{5F7F510D-C21D-4485-8849-C4423D7C77EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D346B76A-08EA-4902-B53E-9E104CC540A2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C1F88B-9659-48A8-8C53-F8152434EF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{15DB0DDD-8B46-476B-962B-17A4E6906705}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="500" xr2:uid="{15DB0DDD-8B46-476B-962B-17A4E6906705}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="138">
   <si>
     <t>Card Number</t>
   </si>
@@ -241,18 +241,6 @@
     <t>1144042020</t>
   </si>
   <si>
-    <t>Views</t>
-  </si>
-  <si>
-    <t>Sorts</t>
-  </si>
-  <si>
-    <t>Filter Management</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
     <t>17192</t>
   </si>
   <si>
@@ -455,9 +443,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy\ \ h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="d/mm/yyyy\ \ h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -495,8 +482,8 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="ARIAL"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -557,7 +544,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -575,9 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -684,39 +668,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -768,7 +752,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -879,6 +863,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -887,13 +878,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -958,31 +942,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -992,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9E536C-6A25-4DD3-833F-6032F62BE17D}">
   <dimension ref="A1:M7022"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M154"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154:XFD154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1016,7 +980,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1076,7 +1040,7 @@
       <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>45663.974409722221</v>
       </c>
       <c r="C3" t="s">
@@ -1113,7 +1077,7 @@
       <c r="A4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>45663.9608912037</v>
       </c>
       <c r="C4" t="s">
@@ -1150,7 +1114,7 @@
       <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>45663.954884259256</v>
       </c>
       <c r="C5" t="s">
@@ -1187,7 +1151,7 @@
       <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>45663.943055555559</v>
       </c>
       <c r="C6" t="s">
@@ -1222,9 +1186,9 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="6">
+        <v>72</v>
+      </c>
+      <c r="B7" s="3">
         <v>45663.932627314818</v>
       </c>
       <c r="C7" t="s">
@@ -1237,7 +1201,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
@@ -1261,7 +1225,7 @@
       <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>45663.932523148149</v>
       </c>
       <c r="C8" t="s">
@@ -1296,9 +1260,9 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="6">
+        <v>72</v>
+      </c>
+      <c r="B9" s="3">
         <v>45663.931076388886</v>
       </c>
       <c r="C9" t="s">
@@ -1311,7 +1275,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1335,7 +1299,7 @@
       <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>45663.919039351851</v>
       </c>
       <c r="C10" t="s">
@@ -1372,7 +1336,7 @@
       <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>45663.91777777778</v>
       </c>
       <c r="C11" t="s">
@@ -1409,7 +1373,7 @@
       <c r="A12" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>45663.911504629628</v>
       </c>
       <c r="C12" t="s">
@@ -1446,7 +1410,7 @@
       <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>45663.911481481482</v>
       </c>
       <c r="C13" t="s">
@@ -1483,7 +1447,7 @@
       <c r="A14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>45663.910960648151</v>
       </c>
       <c r="C14" t="s">
@@ -1518,9 +1482,9 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="6">
+        <v>72</v>
+      </c>
+      <c r="B15" s="3">
         <v>45663.906527777777</v>
       </c>
       <c r="C15" t="s">
@@ -1533,7 +1497,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1555,9 +1519,9 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="6">
+        <v>72</v>
+      </c>
+      <c r="B16" s="3">
         <v>45663.906018518515</v>
       </c>
       <c r="C16" t="s">
@@ -1570,7 +1534,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -1592,9 +1556,9 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="6">
+        <v>72</v>
+      </c>
+      <c r="B17" s="3">
         <v>45663.904016203705</v>
       </c>
       <c r="C17" t="s">
@@ -1607,7 +1571,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
         <v>36</v>
@@ -1631,7 +1595,7 @@
       <c r="A18" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>45663.876770833333</v>
       </c>
       <c r="C18" t="s">
@@ -1668,7 +1632,7 @@
       <c r="A19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>45663.872789351852</v>
       </c>
       <c r="C19" t="s">
@@ -1705,7 +1669,7 @@
       <c r="A20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>45663.871388888889</v>
       </c>
       <c r="C20" t="s">
@@ -1742,7 +1706,7 @@
       <c r="A21" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>45663.867766203701</v>
       </c>
       <c r="C21" t="s">
@@ -1779,7 +1743,7 @@
       <c r="A22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>45663.866539351853</v>
       </c>
       <c r="C22" t="s">
@@ -1816,7 +1780,7 @@
       <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="3">
         <v>45663.864918981482</v>
       </c>
       <c r="C23" t="s">
@@ -1853,7 +1817,7 @@
       <c r="A24" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <v>45663.862627314818</v>
       </c>
       <c r="C24" t="s">
@@ -1890,7 +1854,7 @@
       <c r="A25" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="3">
         <v>45663.86241898148</v>
       </c>
       <c r="C25" t="s">
@@ -1927,7 +1891,7 @@
       <c r="A26" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="3">
         <v>45663.862118055556</v>
       </c>
       <c r="C26" t="s">
@@ -1964,7 +1928,7 @@
       <c r="A27" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="3">
         <v>45663.848807870374</v>
       </c>
       <c r="C27" t="s">
@@ -2001,7 +1965,7 @@
       <c r="A28" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="3">
         <v>45663.847743055558</v>
       </c>
       <c r="C28" t="s">
@@ -2038,7 +2002,7 @@
       <c r="A29" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="3">
         <v>45663.842395833337</v>
       </c>
       <c r="C29" t="s">
@@ -2075,7 +2039,7 @@
       <c r="A30" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="3">
         <v>45663.841724537036</v>
       </c>
       <c r="C30" t="s">
@@ -2112,7 +2076,7 @@
       <c r="A31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="3">
         <v>45663.83525462963</v>
       </c>
       <c r="C31" t="s">
@@ -2149,7 +2113,7 @@
       <c r="A32" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="3">
         <v>45663.834085648145</v>
       </c>
       <c r="C32" t="s">
@@ -2186,7 +2150,7 @@
       <c r="A33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="3">
         <v>45663.828553240739</v>
       </c>
       <c r="C33" t="s">
@@ -2223,7 +2187,7 @@
       <c r="A34" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="3">
         <v>45663.828159722223</v>
       </c>
       <c r="C34" t="s">
@@ -2260,7 +2224,7 @@
       <c r="A35" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="3">
         <v>45663.822164351855</v>
       </c>
       <c r="C35" t="s">
@@ -2297,7 +2261,7 @@
       <c r="A36" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="3">
         <v>45663.821689814817</v>
       </c>
       <c r="C36" t="s">
@@ -2334,7 +2298,7 @@
       <c r="A37" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="3">
         <v>45663.81821759259</v>
       </c>
       <c r="C37" t="s">
@@ -2371,7 +2335,7 @@
       <c r="A38" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="3">
         <v>45663.817824074074</v>
       </c>
       <c r="C38" t="s">
@@ -2408,7 +2372,7 @@
       <c r="A39" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="3">
         <v>45663.812777777777</v>
       </c>
       <c r="C39" t="s">
@@ -2445,7 +2409,7 @@
       <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="3">
         <v>45663.797511574077</v>
       </c>
       <c r="C40" t="s">
@@ -2482,7 +2446,7 @@
       <c r="A41" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="3">
         <v>45663.797418981485</v>
       </c>
       <c r="C41" t="s">
@@ -2517,22 +2481,22 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="6">
+        <v>89</v>
+      </c>
+      <c r="B42" s="3">
         <v>45663.785636574074</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
@@ -2549,14 +2513,14 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="3">
         <v>45663.752974537034</v>
       </c>
       <c r="C43" t="s">
@@ -2593,7 +2557,7 @@
       <c r="A44" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="3">
         <v>45663.706504629627</v>
       </c>
       <c r="C44" t="s">
@@ -2630,7 +2594,7 @@
       <c r="A45" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="3">
         <v>45663.705636574072</v>
       </c>
       <c r="C45" t="s">
@@ -2665,26 +2629,26 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="6">
+        <v>89</v>
+      </c>
+      <c r="B46" s="3">
         <v>45663.693506944444</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G46"/>
       <c r="H46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
@@ -2695,27 +2659,27 @@
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="6">
+        <v>95</v>
+      </c>
+      <c r="B47" s="3">
         <v>45663.69127314815</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -2732,14 +2696,14 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="3">
         <v>45663.673136574071</v>
       </c>
       <c r="C48" t="s">
@@ -2774,26 +2738,26 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="6">
+        <v>89</v>
+      </c>
+      <c r="B49" s="3">
         <v>45663.670914351853</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G49"/>
       <c r="H49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I49" t="s">
         <v>18</v>
@@ -2804,14 +2768,14 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="3">
         <v>45663.670590277776</v>
       </c>
       <c r="C50" t="s">
@@ -2848,7 +2812,7 @@
       <c r="A51" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="3">
         <v>45663.64398148148</v>
       </c>
       <c r="C51" t="s">
@@ -2885,7 +2849,7 @@
       <c r="A52" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="3">
         <v>45663.643055555556</v>
       </c>
       <c r="C52" t="s">
@@ -2922,7 +2886,7 @@
       <c r="A53" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="3">
         <v>45663.634722222225</v>
       </c>
       <c r="C53" t="s">
@@ -2959,7 +2923,7 @@
       <c r="A54" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="3">
         <v>45663.625300925924</v>
       </c>
       <c r="C54" t="s">
@@ -2996,7 +2960,7 @@
       <c r="A55" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="3">
         <v>45663.623599537037</v>
       </c>
       <c r="C55" t="s">
@@ -3033,7 +2997,7 @@
       <c r="A56" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="3">
         <v>45663.614050925928</v>
       </c>
       <c r="C56" t="s">
@@ -3070,7 +3034,7 @@
       <c r="A57" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="3">
         <v>45663.613749999997</v>
       </c>
       <c r="C57" t="s">
@@ -3089,7 +3053,7 @@
         <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I57" t="s">
         <v>15</v>
@@ -3107,7 +3071,7 @@
       <c r="A58" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="3">
         <v>45663.612881944442</v>
       </c>
       <c r="C58" t="s">
@@ -3123,10 +3087,10 @@
         <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H58" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I58" t="s">
         <v>18</v>
@@ -3144,7 +3108,7 @@
       <c r="A59" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="3">
         <v>45663.612592592595</v>
       </c>
       <c r="C59" t="s">
@@ -3181,7 +3145,7 @@
       <c r="A60" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="3">
         <v>45663.61136574074</v>
       </c>
       <c r="C60" t="s">
@@ -3218,7 +3182,7 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="3">
         <v>45663.611076388886</v>
       </c>
       <c r="C61" t="s">
@@ -3237,7 +3201,7 @@
         <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I61" t="s">
         <v>15</v>
@@ -3253,9 +3217,9 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>106</v>
-      </c>
-      <c r="B62" s="6">
+        <v>102</v>
+      </c>
+      <c r="B62" s="3">
         <v>45663.610983796294</v>
       </c>
       <c r="C62" t="s">
@@ -3271,10 +3235,10 @@
         <v>66</v>
       </c>
       <c r="G62" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H62" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I62" t="s">
         <v>15</v>
@@ -3292,7 +3256,7 @@
       <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="3">
         <v>45663.610312500001</v>
       </c>
       <c r="C63" t="s">
@@ -3308,10 +3272,10 @@
         <v>66</v>
       </c>
       <c r="G63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H63" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I63" t="s">
         <v>18</v>
@@ -3329,7 +3293,7 @@
       <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="3">
         <v>45663.609988425924</v>
       </c>
       <c r="C64" t="s">
@@ -3366,7 +3330,7 @@
       <c r="A65" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="3">
         <v>45663.607222222221</v>
       </c>
       <c r="C65" t="s">
@@ -3403,7 +3367,7 @@
       <c r="A66" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="3">
         <v>45663.60260416667</v>
       </c>
       <c r="C66" t="s">
@@ -3440,7 +3404,7 @@
       <c r="A67" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="3">
         <v>45663.602071759262</v>
       </c>
       <c r="C67" t="s">
@@ -3475,9 +3439,9 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="6">
+        <v>74</v>
+      </c>
+      <c r="B68" s="3">
         <v>45663.600682870368</v>
       </c>
       <c r="C68" t="s">
@@ -3512,9 +3476,9 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="6">
+        <v>74</v>
+      </c>
+      <c r="B69" s="3">
         <v>45663.600254629629</v>
       </c>
       <c r="C69" t="s">
@@ -3551,7 +3515,7 @@
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="3">
         <v>45663.594768518517</v>
       </c>
       <c r="C70" t="s">
@@ -3588,7 +3552,7 @@
       <c r="A71" t="s">
         <v>63</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="3">
         <v>45663.594409722224</v>
       </c>
       <c r="C71" t="s">
@@ -3625,7 +3589,7 @@
       <c r="A72" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="3">
         <v>45663.590671296297</v>
       </c>
       <c r="C72" t="s">
@@ -3662,7 +3626,7 @@
       <c r="A73" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="3">
         <v>45663.589502314811</v>
       </c>
       <c r="C73" t="s">
@@ -3697,22 +3661,22 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" s="6">
+        <v>89</v>
+      </c>
+      <c r="B74" s="3">
         <v>45663.585902777777</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E74" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -3729,14 +3693,14 @@
       <c r="K74"/>
       <c r="L74"/>
       <c r="M74" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="3">
         <v>45663.580995370372</v>
       </c>
       <c r="C75" t="s">
@@ -3773,7 +3737,7 @@
       <c r="A76" t="s">
         <v>63</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="3">
         <v>45663.575833333336</v>
       </c>
       <c r="C76" t="s">
@@ -3810,7 +3774,7 @@
       <c r="A77" t="s">
         <v>63</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="3">
         <v>45663.570254629631</v>
       </c>
       <c r="C77" t="s">
@@ -3847,7 +3811,7 @@
       <c r="A78" t="s">
         <v>62</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="3">
         <v>45663.568773148145</v>
       </c>
       <c r="C78" t="s">
@@ -3884,7 +3848,7 @@
       <c r="A79" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="3">
         <v>45663.565405092595</v>
       </c>
       <c r="C79" t="s">
@@ -3921,7 +3885,7 @@
       <c r="A80" t="s">
         <v>69</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="3">
         <v>45663.564745370371</v>
       </c>
       <c r="C80" t="s">
@@ -3958,7 +3922,7 @@
       <c r="A81" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="3">
         <v>45663.562384259261</v>
       </c>
       <c r="C81" t="s">
@@ -3995,7 +3959,7 @@
       <c r="A82" t="s">
         <v>62</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="3">
         <v>45663.556932870371</v>
       </c>
       <c r="C82" t="s">
@@ -4030,19 +3994,19 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>108</v>
-      </c>
-      <c r="B83" s="6">
+        <v>104</v>
+      </c>
+      <c r="B83" s="3">
         <v>45663.552870370368</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E83" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="s">
@@ -4058,28 +4022,28 @@
         <v>24</v>
       </c>
       <c r="K83" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L83" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M83"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>113</v>
-      </c>
-      <c r="B84" s="6">
+        <v>109</v>
+      </c>
+      <c r="B84" s="3">
         <v>45663.552824074075</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="s">
@@ -4095,28 +4059,28 @@
         <v>24</v>
       </c>
       <c r="K84" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L84" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M84"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>118</v>
-      </c>
-      <c r="B85" s="6">
+        <v>114</v>
+      </c>
+      <c r="B85" s="3">
         <v>45663.552812499998</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E85" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="s">
@@ -4132,10 +4096,10 @@
         <v>24</v>
       </c>
       <c r="K85" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L85" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M85"/>
     </row>
@@ -4143,7 +4107,7 @@
       <c r="A86" t="s">
         <v>63</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="3">
         <v>45663.546666666669</v>
       </c>
       <c r="C86" t="s">
@@ -4162,7 +4126,7 @@
         <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I86" t="s">
         <v>15</v>
@@ -4180,7 +4144,7 @@
       <c r="A87" t="s">
         <v>62</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="3">
         <v>45663.542326388888</v>
       </c>
       <c r="C87" t="s">
@@ -4217,7 +4181,7 @@
       <c r="A88" t="s">
         <v>63</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="3">
         <v>45663.539340277777</v>
       </c>
       <c r="C88" t="s">
@@ -4252,19 +4216,19 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" s="6">
+        <v>118</v>
+      </c>
+      <c r="B89" s="3">
         <v>45663.537106481483</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E89" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="s">
@@ -4280,28 +4244,28 @@
         <v>24</v>
       </c>
       <c r="K89" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L89" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M89"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>123</v>
-      </c>
-      <c r="B90" s="6">
+        <v>119</v>
+      </c>
+      <c r="B90" s="3">
         <v>45663.537048611113</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E90" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="s">
@@ -4317,28 +4281,28 @@
         <v>24</v>
       </c>
       <c r="K90" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L90" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M90"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>124</v>
-      </c>
-      <c r="B91" s="6">
+        <v>120</v>
+      </c>
+      <c r="B91" s="3">
         <v>45663.531412037039</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E91" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="s">
@@ -4354,10 +4318,10 @@
         <v>24</v>
       </c>
       <c r="K91" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L91" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M91"/>
     </row>
@@ -4365,7 +4329,7 @@
       <c r="A92" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="3">
         <v>45663.499965277777</v>
       </c>
       <c r="C92" t="s">
@@ -4402,7 +4366,7 @@
       <c r="A93" t="s">
         <v>63</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="3">
         <v>45663.485844907409</v>
       </c>
       <c r="C93" t="s">
@@ -4437,22 +4401,22 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="6">
+        <v>95</v>
+      </c>
+      <c r="B94" s="3">
         <v>45663.485682870371</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E94" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F94" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -4469,27 +4433,27 @@
       <c r="K94"/>
       <c r="L94"/>
       <c r="M94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" s="6">
+        <v>95</v>
+      </c>
+      <c r="B95" s="3">
         <v>45663.485462962963</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F95" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G95" t="s">
         <v>36</v>
@@ -4506,14 +4470,14 @@
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>65</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="3">
         <v>45663.478437500002</v>
       </c>
       <c r="C96" t="s">
@@ -4550,7 +4514,7 @@
       <c r="A97" t="s">
         <v>65</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="3">
         <v>45663.477141203701</v>
       </c>
       <c r="C97" t="s">
@@ -4585,19 +4549,19 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="6">
+        <v>124</v>
+      </c>
+      <c r="B98" s="3">
         <v>45663.465798611112</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E98" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="s">
@@ -4613,10 +4577,10 @@
         <v>24</v>
       </c>
       <c r="K98" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L98" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M98"/>
     </row>
@@ -4624,7 +4588,7 @@
       <c r="A99" t="s">
         <v>63</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="3">
         <v>45663.440960648149</v>
       </c>
       <c r="C99" t="s">
@@ -4661,7 +4625,7 @@
       <c r="A100" t="s">
         <v>63</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="3">
         <v>45663.436215277776</v>
       </c>
       <c r="C100" t="s">
@@ -4698,7 +4662,7 @@
       <c r="A101" t="s">
         <v>63</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="3">
         <v>45663.435891203706</v>
       </c>
       <c r="C101" t="s">
@@ -4735,7 +4699,7 @@
       <c r="A102" t="s">
         <v>63</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="3">
         <v>45663.435752314814</v>
       </c>
       <c r="C102" t="s">
@@ -4772,7 +4736,7 @@
       <c r="A103" t="s">
         <v>65</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="3">
         <v>45663.430127314816</v>
       </c>
       <c r="C103" t="s">
@@ -4807,19 +4771,19 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>133</v>
-      </c>
-      <c r="B104" s="6">
+        <v>129</v>
+      </c>
+      <c r="B104" s="3">
         <v>45663.429791666669</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E104" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="s">
@@ -4835,10 +4799,10 @@
         <v>24</v>
       </c>
       <c r="K104" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L104" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M104"/>
     </row>
@@ -4846,7 +4810,7 @@
       <c r="A105" t="s">
         <v>65</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="3">
         <v>45663.428668981483</v>
       </c>
       <c r="C105" t="s">
@@ -4883,7 +4847,7 @@
       <c r="A106" t="s">
         <v>65</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="3">
         <v>45663.427395833336</v>
       </c>
       <c r="C106" t="s">
@@ -4920,7 +4884,7 @@
       <c r="A107" t="s">
         <v>65</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="3">
         <v>45663.425300925926</v>
       </c>
       <c r="C107" t="s">
@@ -4955,19 +4919,19 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>137</v>
-      </c>
-      <c r="B108" s="6">
+        <v>133</v>
+      </c>
+      <c r="B108" s="3">
         <v>45663.417696759258</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E108" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="s">
@@ -4983,28 +4947,28 @@
         <v>24</v>
       </c>
       <c r="K108" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L108" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M108"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>133</v>
-      </c>
-      <c r="B109" s="6">
+        <v>129</v>
+      </c>
+      <c r="B109" s="3">
         <v>45663.416215277779</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E109" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="s">
@@ -5020,28 +4984,28 @@
         <v>24</v>
       </c>
       <c r="K109" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L109" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M109"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>128</v>
-      </c>
-      <c r="B110" s="6">
+        <v>124</v>
+      </c>
+      <c r="B110" s="3">
         <v>45663.377060185187</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E110" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="s">
@@ -5057,28 +5021,28 @@
         <v>24</v>
       </c>
       <c r="K110" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L110" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M110"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>137</v>
-      </c>
-      <c r="B111" s="6">
+        <v>133</v>
+      </c>
+      <c r="B111" s="3">
         <v>45663.36917824074</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E111" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="s">
@@ -5094,28 +5058,28 @@
         <v>24</v>
       </c>
       <c r="K111" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L111" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M111"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>123</v>
-      </c>
-      <c r="B112" s="6">
+        <v>119</v>
+      </c>
+      <c r="B112" s="3">
         <v>45663.361539351848</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E112" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="s">
@@ -5131,28 +5095,28 @@
         <v>24</v>
       </c>
       <c r="K112" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L112" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M112"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>138</v>
-      </c>
-      <c r="B113" s="6">
+        <v>134</v>
+      </c>
+      <c r="B113" s="3">
         <v>45663.360474537039</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E113" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="s">
@@ -5168,10 +5132,10 @@
         <v>24</v>
       </c>
       <c r="K113" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L113" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M113"/>
     </row>
@@ -5179,7 +5143,7 @@
       <c r="A114" t="s">
         <v>65</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="3">
         <v>45663.357905092591</v>
       </c>
       <c r="C114" t="s">
@@ -5216,7 +5180,7 @@
       <c r="A115" t="s">
         <v>65</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="3">
         <v>45663.355150462965</v>
       </c>
       <c r="C115" t="s">
@@ -5251,19 +5215,19 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>128</v>
-      </c>
-      <c r="B116" s="6">
+        <v>124</v>
+      </c>
+      <c r="B116" s="3">
         <v>45663.354768518519</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E116" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="s">
@@ -5279,28 +5243,28 @@
         <v>24</v>
       </c>
       <c r="K116" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L116" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M116"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>138</v>
-      </c>
-      <c r="B117" s="6">
+        <v>134</v>
+      </c>
+      <c r="B117" s="3">
         <v>45663.354212962964</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E117" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="s">
@@ -5316,28 +5280,28 @@
         <v>24</v>
       </c>
       <c r="K117" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L117" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M117"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" s="6">
+        <v>114</v>
+      </c>
+      <c r="B118" s="3">
         <v>45663.349224537036</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E118" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="s">
@@ -5353,28 +5317,28 @@
         <v>24</v>
       </c>
       <c r="K118" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L118" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M118"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>113</v>
-      </c>
-      <c r="B119" s="6">
+        <v>109</v>
+      </c>
+      <c r="B119" s="3">
         <v>45663.333657407406</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E119" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="s">
@@ -5390,28 +5354,28 @@
         <v>24</v>
       </c>
       <c r="K119" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L119" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M119"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>108</v>
-      </c>
-      <c r="B120" s="6">
+        <v>104</v>
+      </c>
+      <c r="B120" s="3">
         <v>45663.333622685182</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
       </c>
       <c r="D120" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E120" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F120"/>
       <c r="G120" t="s">
@@ -5427,28 +5391,28 @@
         <v>24</v>
       </c>
       <c r="K120" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L120" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M120"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>122</v>
-      </c>
-      <c r="B121" s="6">
+        <v>118</v>
+      </c>
+      <c r="B121" s="3">
         <v>45663.331122685187</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E121" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="s">
@@ -5464,28 +5428,28 @@
         <v>24</v>
       </c>
       <c r="K121" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L121" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M121"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" s="6">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3">
         <v>45663.330740740741</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
       </c>
       <c r="D122" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="s">
@@ -5501,10 +5465,10 @@
         <v>24</v>
       </c>
       <c r="K122" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L122" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M122"/>
     </row>
@@ -5512,7 +5476,7 @@
       <c r="A123" t="s">
         <v>63</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="3">
         <v>45663.294560185182</v>
       </c>
       <c r="C123" t="s">
@@ -5549,7 +5513,7 @@
       <c r="A124" t="s">
         <v>63</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B124" s="3">
         <v>45663.294074074074</v>
       </c>
       <c r="C124" t="s">
@@ -5584,9 +5548,9 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>76</v>
-      </c>
-      <c r="B125" s="6">
+        <v>72</v>
+      </c>
+      <c r="B125" s="3">
         <v>45663.277766203704</v>
       </c>
       <c r="C125" t="s">
@@ -5599,7 +5563,7 @@
         <v>43</v>
       </c>
       <c r="F125" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G125" t="s">
         <v>17</v>
@@ -5621,9 +5585,9 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>76</v>
-      </c>
-      <c r="B126" s="6">
+        <v>72</v>
+      </c>
+      <c r="B126" s="3">
         <v>45663.2737037037</v>
       </c>
       <c r="C126" t="s">
@@ -5636,7 +5600,7 @@
         <v>43</v>
       </c>
       <c r="F126" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G126" t="s">
         <v>17</v>
@@ -5658,9 +5622,9 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>76</v>
-      </c>
-      <c r="B127" s="6">
+        <v>72</v>
+      </c>
+      <c r="B127" s="3">
         <v>45663.273148148146</v>
       </c>
       <c r="C127" t="s">
@@ -5673,7 +5637,7 @@
         <v>43</v>
       </c>
       <c r="F127" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G127" t="s">
         <v>14</v>
@@ -5697,7 +5661,7 @@
       <c r="A128" t="s">
         <v>70</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="3">
         <v>45663.266539351855</v>
       </c>
       <c r="C128" t="s">
@@ -5734,7 +5698,7 @@
       <c r="A129" t="s">
         <v>70</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="3">
         <v>45663.266087962962</v>
       </c>
       <c r="C129" t="s">
@@ -5771,7 +5735,7 @@
       <c r="A130" t="s">
         <v>70</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B130" s="3">
         <v>45663.264618055553</v>
       </c>
       <c r="C130" t="s">
@@ -5808,7 +5772,7 @@
       <c r="A131" t="s">
         <v>62</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B131" s="3">
         <v>45663.263506944444</v>
       </c>
       <c r="C131" t="s">
@@ -5845,7 +5809,7 @@
       <c r="A132" t="s">
         <v>62</v>
       </c>
-      <c r="B132" s="6">
+      <c r="B132" s="3">
         <v>45663.263182870367</v>
       </c>
       <c r="C132" t="s">
@@ -5882,7 +5846,7 @@
       <c r="A133" t="s">
         <v>62</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="3">
         <v>45663.263055555559</v>
       </c>
       <c r="C133" t="s">
@@ -5919,7 +5883,7 @@
       <c r="A134" t="s">
         <v>63</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="3">
         <v>45663.261157407411</v>
       </c>
       <c r="C134" t="s">
@@ -5956,7 +5920,7 @@
       <c r="A135" t="s">
         <v>63</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="3">
         <v>45663.254270833335</v>
       </c>
       <c r="C135" t="s">
@@ -5993,7 +5957,7 @@
       <c r="A136" t="s">
         <v>63</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136" s="3">
         <v>45663.253993055558</v>
       </c>
       <c r="C136" t="s">
@@ -6030,7 +5994,7 @@
       <c r="A137" t="s">
         <v>63</v>
       </c>
-      <c r="B137" s="6">
+      <c r="B137" s="3">
         <v>45663.25371527778</v>
       </c>
       <c r="C137" t="s">
@@ -6067,7 +6031,7 @@
       <c r="A138" t="s">
         <v>63</v>
       </c>
-      <c r="B138" s="6">
+      <c r="B138" s="3">
         <v>45663.248692129629</v>
       </c>
       <c r="C138" t="s">
@@ -6104,7 +6068,7 @@
       <c r="A139" t="s">
         <v>62</v>
       </c>
-      <c r="B139" s="6">
+      <c r="B139" s="3">
         <v>45663.243657407409</v>
       </c>
       <c r="C139" t="s">
@@ -6141,7 +6105,7 @@
       <c r="A140" t="s">
         <v>63</v>
       </c>
-      <c r="B140" s="6">
+      <c r="B140" s="3">
         <v>45663.239895833336</v>
       </c>
       <c r="C140" t="s">
@@ -6178,7 +6142,7 @@
       <c r="A141" t="s">
         <v>63</v>
       </c>
-      <c r="B141" s="6">
+      <c r="B141" s="3">
         <v>45663.239212962966</v>
       </c>
       <c r="C141" t="s">
@@ -6215,7 +6179,7 @@
       <c r="A142" t="s">
         <v>62</v>
       </c>
-      <c r="B142" s="6">
+      <c r="B142" s="3">
         <v>45663.234155092592</v>
       </c>
       <c r="C142" t="s">
@@ -6252,7 +6216,7 @@
       <c r="A143" t="s">
         <v>63</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B143" s="3">
         <v>45663.228981481479</v>
       </c>
       <c r="C143" t="s">
@@ -6289,7 +6253,7 @@
       <c r="A144" t="s">
         <v>62</v>
       </c>
-      <c r="B144" s="6">
+      <c r="B144" s="3">
         <v>45663.21303240741</v>
       </c>
       <c r="C144" t="s">
@@ -6326,7 +6290,7 @@
       <c r="A145" t="s">
         <v>62</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="3">
         <v>45663.203553240739</v>
       </c>
       <c r="C145" t="s">
@@ -6363,7 +6327,7 @@
       <c r="A146" t="s">
         <v>63</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B146" s="3">
         <v>45663.188483796293</v>
       </c>
       <c r="C146" t="s">
@@ -6400,7 +6364,7 @@
       <c r="A147" t="s">
         <v>63</v>
       </c>
-      <c r="B147" s="6">
+      <c r="B147" s="3">
         <v>45663.166875000003</v>
       </c>
       <c r="C147" t="s">
@@ -6437,7 +6401,7 @@
       <c r="A148" t="s">
         <v>63</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B148" s="3">
         <v>45663.100740740738</v>
       </c>
       <c r="C148" t="s">
@@ -6474,7 +6438,7 @@
       <c r="A149" t="s">
         <v>63</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="3">
         <v>45663.097418981481</v>
       </c>
       <c r="C149" t="s">
@@ -6511,7 +6475,7 @@
       <c r="A150" t="s">
         <v>63</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="3">
         <v>45663.063263888886</v>
       </c>
       <c r="C150" t="s">
@@ -6548,7 +6512,7 @@
       <c r="A151" t="s">
         <v>63</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B151" s="3">
         <v>45663.0625</v>
       </c>
       <c r="C151" t="s">
@@ -6585,7 +6549,7 @@
       <c r="A152" t="s">
         <v>63</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B152" s="3">
         <v>45663.028819444444</v>
       </c>
       <c r="C152" t="s">
@@ -6622,7 +6586,7 @@
       <c r="A153" t="s">
         <v>63</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B153" s="3">
         <v>45663.02851851852</v>
       </c>
       <c r="C153" t="s">
@@ -6656,22 +6620,12 @@
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>72</v>
-      </c>
-      <c r="B154" t="s">
-        <v>73</v>
-      </c>
-      <c r="C154" t="s">
-        <v>74</v>
-      </c>
+      <c r="A154"/>
+      <c r="B154"/>
+      <c r="C154"/>
       <c r="D154"/>
-      <c r="E154" t="s">
-        <v>75</v>
-      </c>
-      <c r="F154" s="4">
-        <v>151</v>
-      </c>
+      <c r="E154"/>
+      <c r="F154" s="4"/>
       <c r="G154"/>
       <c r="H154"/>
       <c r="I154"/>
